--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve">mount</t>
   </si>
@@ -43,6 +43,15 @@
 324214124
 5352353523</t>
   </si>
+  <si>
+    <t xml:space="preserve">valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Звычайна гэта аперацыя з раздзеламі памяці ў linux.“
+2323
+324214124
+1</t>
+  </si>
 </sst>
 </file>
 
@@ -51,7 +60,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -81,12 +90,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -179,11 +182,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,7 +198,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,18 +290,18 @@
   <dimension ref="A1:E734"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="45.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="59.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="2" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="2" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -330,7 +333,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2022031301</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,37 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">mount</t>
+    <t xml:space="preserve">BFD</t>
   </si>
   <si>
-    <t xml:space="preserve">прыманціраваць, падключыць</t>
+    <t xml:space="preserve">Бібліятэка дэскрыптараў бінарных файлаў, ДБФ (The Binary File Descriptor library)</t>
   </si>
   <si>
-    <t xml:space="preserve">Звычайна гэта аперацыя з раздзеламі памяці ў linux.1111111111111111111111111111111111111111111111111111111111111111111 
-11111111111111111111111111c333333333333333333333</t>
+    <t xml:space="preserve">Асноўны механізм праекта GNU для працы з аб“ектнымі файламі розных фарматаў.</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
+    <t xml:space="preserve">relocation</t>
   </si>
   <si>
-    <t xml:space="preserve">тэставы запіс для праверкі адлюстраваньня</t>
+    <t xml:space="preserve">прысваеньне адрасу</t>
   </si>
   <si>
-    <t xml:space="preserve">Звычайна гэта аперацыя з раздзеламі памяці ў linux.“
-2323
-324214124
-5352353523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Звычайна гэта аперацыя з раздзеламі памяці ў linux.“
-2323
-324214124
-1</t>
+    <t xml:space="preserve">Працэс прысваення адрасоў нагрузкі для залежнага ад пазіцыі коду й дадзеных праграмы.
+https://en.wikipedia.org/wiki/Relocation_(computing)</t>
   </si>
 </sst>
 </file>
@@ -60,7 +48,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -90,6 +78,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -178,15 +172,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,7 +192,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,13 +281,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E734"/>
+  <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.57"/>
@@ -304,9 +298,9 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="2" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>2022030701</v>
+        <v>2022031301</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -314,14 +308,14 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>2022030702</v>
+      <c r="A2" s="1" t="n">
+        <v>2022031302</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -329,24 +323,11 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2022031301</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1055,140 +1036,142 @@
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B712" s="3"/>
+      <c r="C712" s="6"/>
+      <c r="D712" s="5"/>
+      <c r="E712" s="7"/>
+    </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B713" s="3"/>
-      <c r="C713" s="6"/>
-      <c r="D713" s="4"/>
+      <c r="C713" s="5"/>
+      <c r="D713" s="5"/>
       <c r="E713" s="7"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B714" s="3"/>
-      <c r="C714" s="4"/>
-      <c r="D714" s="4"/>
+      <c r="C714" s="5"/>
+      <c r="D714" s="5"/>
       <c r="E714" s="7"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B715" s="3"/>
-      <c r="C715" s="4"/>
-      <c r="D715" s="4"/>
+      <c r="C715" s="5"/>
+      <c r="D715" s="5"/>
       <c r="E715" s="7"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B716" s="3"/>
-      <c r="C716" s="4"/>
-      <c r="D716" s="4"/>
+      <c r="C716" s="5"/>
+      <c r="D716" s="5"/>
       <c r="E716" s="7"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B717" s="3"/>
-      <c r="C717" s="4"/>
-      <c r="D717" s="4"/>
+      <c r="C717" s="5"/>
+      <c r="D717" s="5"/>
       <c r="E717" s="7"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B718" s="3"/>
-      <c r="C718" s="4"/>
-      <c r="D718" s="4"/>
+      <c r="C718" s="8"/>
+      <c r="D718" s="5"/>
       <c r="E718" s="7"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B719" s="3"/>
       <c r="C719" s="8"/>
-      <c r="D719" s="4"/>
+      <c r="D719" s="5"/>
       <c r="E719" s="7"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B720" s="3"/>
-      <c r="C720" s="8"/>
-      <c r="D720" s="4"/>
+      <c r="C720" s="5"/>
+      <c r="D720" s="5"/>
       <c r="E720" s="7"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B721" s="3"/>
-      <c r="C721" s="4"/>
-      <c r="D721" s="4"/>
-      <c r="E721" s="7"/>
+      <c r="C721" s="5"/>
+      <c r="D721" s="5"/>
+      <c r="E721" s="5"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B722" s="3"/>
-      <c r="C722" s="4"/>
-      <c r="D722" s="4"/>
-      <c r="E722" s="4"/>
+      <c r="C722" s="5"/>
+      <c r="D722" s="5"/>
+      <c r="E722" s="5"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B723" s="3"/>
-      <c r="C723" s="4"/>
-      <c r="D723" s="4"/>
-      <c r="E723" s="4"/>
+      <c r="C723" s="5"/>
+      <c r="D723" s="5"/>
+      <c r="E723" s="7"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B724" s="3"/>
-      <c r="C724" s="4"/>
-      <c r="D724" s="4"/>
+      <c r="C724" s="5"/>
+      <c r="D724" s="5"/>
       <c r="E724" s="7"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B725" s="3"/>
-      <c r="C725" s="4"/>
-      <c r="D725" s="4"/>
-      <c r="E725" s="7"/>
+      <c r="C725" s="5"/>
+      <c r="D725" s="5"/>
+      <c r="E725" s="5"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B726" s="3"/>
-      <c r="C726" s="4"/>
-      <c r="D726" s="4"/>
-      <c r="E726" s="4"/>
+      <c r="C726" s="5"/>
+      <c r="D726" s="5"/>
+      <c r="E726" s="5"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B727" s="3"/>
-      <c r="C727" s="4"/>
-      <c r="D727" s="4"/>
-      <c r="E727" s="4"/>
+      <c r="C727" s="5"/>
+      <c r="D727" s="5"/>
+      <c r="E727" s="5"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B728" s="3"/>
-      <c r="C728" s="4"/>
-      <c r="D728" s="4"/>
-      <c r="E728" s="4"/>
+      <c r="C728" s="5"/>
+      <c r="D728" s="5"/>
+      <c r="E728" s="5"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B729" s="3"/>
-      <c r="C729" s="4"/>
-      <c r="D729" s="4"/>
-      <c r="E729" s="4"/>
+      <c r="C729" s="5"/>
+      <c r="D729" s="5"/>
+      <c r="E729" s="5"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B730" s="3"/>
-      <c r="C730" s="4"/>
-      <c r="D730" s="4"/>
-      <c r="E730" s="4"/>
+      <c r="C730" s="9"/>
+      <c r="D730" s="5"/>
+      <c r="E730" s="7"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B731" s="3"/>
-      <c r="C731" s="9"/>
-      <c r="D731" s="4"/>
+      <c r="B731" s="10"/>
+      <c r="C731" s="5"/>
+      <c r="D731" s="5"/>
       <c r="E731" s="7"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B732" s="10"/>
-      <c r="C732" s="4"/>
-      <c r="D732" s="4"/>
+      <c r="C732" s="5"/>
+      <c r="D732" s="5"/>
       <c r="E732" s="7"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B733" s="10"/>
-      <c r="C733" s="4"/>
-      <c r="D733" s="4"/>
-      <c r="E733" s="7"/>
-    </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B734" s="3"/>
-      <c r="C734" s="4"/>
-      <c r="D734" s="4"/>
-      <c r="E734" s="11"/>
+      <c r="B733" s="3"/>
+      <c r="C733" s="5"/>
+      <c r="D733" s="5"/>
+      <c r="E733" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://en.wikipedia.org/wiki/Relocation_(computing"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Бібліятэка дэскрыптараў бінарных файлаў, ДБФ (The Binary File Descriptor library)</t>
   </si>
   <si>
-    <t xml:space="preserve">Асноўны механізм праекта GNU для працы з аб“ектнымі файламі розных фарматаў.</t>
+    <t xml:space="preserve">асноўны механізм праекта GNU для працы з аб'ектнымі файламі розных фарматаў.</t>
   </si>
   <si>
     <t xml:space="preserve">relocation</t>
@@ -37,8 +37,7 @@
     <t xml:space="preserve">прысваеньне адрасу</t>
   </si>
   <si>
-    <t xml:space="preserve">Працэс прысваення адрасоў нагрузкі для залежнага ад пазіцыі коду й дадзеных праграмы.
-https://en.wikipedia.org/wiki/Relocation_(computing)</t>
+    <t xml:space="preserve">працэс прысваеньня адрасоў загрузкі для кода й дадзеных праграмы, якія залежаць ад пазіцыі, і карэкціроўкі кода й даных для адлюстраваньня прысвоеных адрасоў. </t>
   </si>
 </sst>
 </file>
@@ -48,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -78,12 +77,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -155,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,15 +165,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,7 +181,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,7 +273,7 @@
   <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -308,7 +297,7 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3"/>
@@ -323,7 +312,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1038,140 +1027,137 @@
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B712" s="3"/>
-      <c r="C712" s="6"/>
-      <c r="D712" s="5"/>
-      <c r="E712" s="7"/>
+      <c r="C712" s="5"/>
+      <c r="D712" s="4"/>
+      <c r="E712" s="6"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B713" s="3"/>
-      <c r="C713" s="5"/>
-      <c r="D713" s="5"/>
-      <c r="E713" s="7"/>
+      <c r="C713" s="4"/>
+      <c r="D713" s="4"/>
+      <c r="E713" s="6"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B714" s="3"/>
-      <c r="C714" s="5"/>
-      <c r="D714" s="5"/>
-      <c r="E714" s="7"/>
+      <c r="C714" s="4"/>
+      <c r="D714" s="4"/>
+      <c r="E714" s="6"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B715" s="3"/>
-      <c r="C715" s="5"/>
-      <c r="D715" s="5"/>
-      <c r="E715" s="7"/>
+      <c r="C715" s="4"/>
+      <c r="D715" s="4"/>
+      <c r="E715" s="6"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B716" s="3"/>
-      <c r="C716" s="5"/>
-      <c r="D716" s="5"/>
-      <c r="E716" s="7"/>
+      <c r="C716" s="4"/>
+      <c r="D716" s="4"/>
+      <c r="E716" s="6"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B717" s="3"/>
-      <c r="C717" s="5"/>
-      <c r="D717" s="5"/>
-      <c r="E717" s="7"/>
+      <c r="C717" s="4"/>
+      <c r="D717" s="4"/>
+      <c r="E717" s="6"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B718" s="3"/>
-      <c r="C718" s="8"/>
-      <c r="D718" s="5"/>
-      <c r="E718" s="7"/>
+      <c r="C718" s="7"/>
+      <c r="D718" s="4"/>
+      <c r="E718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B719" s="3"/>
-      <c r="C719" s="8"/>
-      <c r="D719" s="5"/>
-      <c r="E719" s="7"/>
+      <c r="C719" s="7"/>
+      <c r="D719" s="4"/>
+      <c r="E719" s="6"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B720" s="3"/>
-      <c r="C720" s="5"/>
-      <c r="D720" s="5"/>
-      <c r="E720" s="7"/>
+      <c r="C720" s="4"/>
+      <c r="D720" s="4"/>
+      <c r="E720" s="6"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B721" s="3"/>
-      <c r="C721" s="5"/>
-      <c r="D721" s="5"/>
-      <c r="E721" s="5"/>
+      <c r="C721" s="4"/>
+      <c r="D721" s="4"/>
+      <c r="E721" s="4"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B722" s="3"/>
-      <c r="C722" s="5"/>
-      <c r="D722" s="5"/>
-      <c r="E722" s="5"/>
+      <c r="C722" s="4"/>
+      <c r="D722" s="4"/>
+      <c r="E722" s="4"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B723" s="3"/>
-      <c r="C723" s="5"/>
-      <c r="D723" s="5"/>
-      <c r="E723" s="7"/>
+      <c r="C723" s="4"/>
+      <c r="D723" s="4"/>
+      <c r="E723" s="6"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B724" s="3"/>
-      <c r="C724" s="5"/>
-      <c r="D724" s="5"/>
-      <c r="E724" s="7"/>
+      <c r="C724" s="4"/>
+      <c r="D724" s="4"/>
+      <c r="E724" s="6"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B725" s="3"/>
-      <c r="C725" s="5"/>
-      <c r="D725" s="5"/>
-      <c r="E725" s="5"/>
+      <c r="C725" s="4"/>
+      <c r="D725" s="4"/>
+      <c r="E725" s="4"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B726" s="3"/>
-      <c r="C726" s="5"/>
-      <c r="D726" s="5"/>
-      <c r="E726" s="5"/>
+      <c r="C726" s="4"/>
+      <c r="D726" s="4"/>
+      <c r="E726" s="4"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B727" s="3"/>
-      <c r="C727" s="5"/>
-      <c r="D727" s="5"/>
-      <c r="E727" s="5"/>
+      <c r="C727" s="4"/>
+      <c r="D727" s="4"/>
+      <c r="E727" s="4"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B728" s="3"/>
-      <c r="C728" s="5"/>
-      <c r="D728" s="5"/>
-      <c r="E728" s="5"/>
+      <c r="C728" s="4"/>
+      <c r="D728" s="4"/>
+      <c r="E728" s="4"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B729" s="3"/>
-      <c r="C729" s="5"/>
-      <c r="D729" s="5"/>
-      <c r="E729" s="5"/>
+      <c r="C729" s="4"/>
+      <c r="D729" s="4"/>
+      <c r="E729" s="4"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B730" s="3"/>
-      <c r="C730" s="9"/>
-      <c r="D730" s="5"/>
-      <c r="E730" s="7"/>
+      <c r="C730" s="8"/>
+      <c r="D730" s="4"/>
+      <c r="E730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B731" s="10"/>
-      <c r="C731" s="5"/>
-      <c r="D731" s="5"/>
-      <c r="E731" s="7"/>
+      <c r="B731" s="9"/>
+      <c r="C731" s="4"/>
+      <c r="D731" s="4"/>
+      <c r="E731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B732" s="10"/>
-      <c r="C732" s="5"/>
-      <c r="D732" s="5"/>
-      <c r="E732" s="7"/>
+      <c r="B732" s="9"/>
+      <c r="C732" s="4"/>
+      <c r="D732" s="4"/>
+      <c r="E732" s="6"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B733" s="3"/>
-      <c r="C733" s="5"/>
-      <c r="D733" s="5"/>
-      <c r="E733" s="11"/>
+      <c r="C733" s="4"/>
+      <c r="D733" s="4"/>
+      <c r="E733" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://en.wikipedia.org/wiki/Relocation_(computing"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">BFD</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t xml:space="preserve">працэс прысваеньня адрасоў загрузкі для кода й дадзеных праграмы, якія залежаць ад пазіцыі, і карэкціроўкі кода й даных для адлюстраваньня прысвоеных адрасоў. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Інструмэнты разьметкі</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уключаюць у сябе тлусты тэкст, падкрэсліваньне, розныя шрыфты й вялікія/загалоўныя літары. Тыповыя інструмэнты разьметкі залежаць ад тыпу тэксту. Вялікія тэксты звычайна разбіваюцца на раздзелы, каб спрасьціць успрыманьне інфармацыі. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variation Axes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Восі варыяцый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дыяпазон лікаў для значэньня, якое апісвае вызначаны аспект дызайну канкрэтнага элемента.</t>
   </si>
 </sst>
 </file>
@@ -169,12 +187,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -273,7 +291,7 @@
   <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,7 +299,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="45.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="59.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="62.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="29.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="2" width="14.43"/>
@@ -316,8 +334,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2022031303</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2022031304</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1027,57 +1071,57 @@
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B712" s="3"/>
-      <c r="C712" s="5"/>
+      <c r="C712" s="6"/>
       <c r="D712" s="4"/>
-      <c r="E712" s="6"/>
+      <c r="E712" s="5"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B713" s="3"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
-      <c r="E713" s="6"/>
+      <c r="E713" s="5"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B714" s="3"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
-      <c r="E714" s="6"/>
+      <c r="E714" s="5"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B715" s="3"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
-      <c r="E715" s="6"/>
+      <c r="E715" s="5"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B716" s="3"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
-      <c r="E716" s="6"/>
+      <c r="E716" s="5"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B717" s="3"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
-      <c r="E717" s="6"/>
+      <c r="E717" s="5"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B718" s="3"/>
       <c r="C718" s="7"/>
       <c r="D718" s="4"/>
-      <c r="E718" s="6"/>
+      <c r="E718" s="5"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B719" s="3"/>
       <c r="C719" s="7"/>
       <c r="D719" s="4"/>
-      <c r="E719" s="6"/>
+      <c r="E719" s="5"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B720" s="3"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
-      <c r="E720" s="6"/>
+      <c r="E720" s="5"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B721" s="3"/>
@@ -1095,13 +1139,13 @@
       <c r="B723" s="3"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
-      <c r="E723" s="6"/>
+      <c r="E723" s="5"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B724" s="3"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
-      <c r="E724" s="6"/>
+      <c r="E724" s="5"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B725" s="3"/>
@@ -1137,19 +1181,19 @@
       <c r="B730" s="3"/>
       <c r="C730" s="8"/>
       <c r="D730" s="4"/>
-      <c r="E730" s="6"/>
+      <c r="E730" s="5"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B731" s="9"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
-      <c r="E731" s="6"/>
+      <c r="E731" s="5"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B732" s="9"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
-      <c r="E732" s="6"/>
+      <c r="E732" s="5"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B733" s="3"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">BFD</t>
   </si>
@@ -56,6 +56,51 @@
   </si>
   <si>
     <t xml:space="preserve">дыяпазон лікаў для значэньня, якое апісвае вызначаны аспект дызайну канкрэтнага элемента.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CJK Symbols and Punctuation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CJK сымбалі й пунктуацыя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unicode-блок, які зьмяшчае сымбалі й знакі прыпынку для Кітайскай, Японскай і Карэйскай моў (Chinese, Japanese and Korean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkmk, Mark to Mark Positioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пазіцыяванне акцэнтаў адносна акцэнтаў</t>
+  </si>
+  <si>
+    <t xml:space="preserve">асаблівасьць OpenType, якая дазваляе пазіцыянаваць акцэнты адносна іншых акцэнтаў</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зваротны інжынірынг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">працэс аналізу сістэмы з мэтай зразумець, як яна працуе. Для фізічных аб'ектаў можа ўключаць іх разборку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object-oriented programming, OOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аб'ектна-арыентаванае праграміраваньне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">падыход да напісаньня коду, пры якім сістэма апісваецца праз аб'екты і іх узаемадзеяньне. Метады й палі з інфармацыяй у гэтым выпадку ня могуць існаваць па-за аб'ектам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software design pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шаблёны праграміраваньня, паттэрны праграміраваньня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">агульныя падыходы для рашэньня часта сустракаемых задач, якія могуць выкарыстоўвацца ў розных сістэмах. Не зьяўляюцца канкрэтнымі прыкладамі коду, а апісваюць алгарытм рашэньня тыповай задачы.</t>
   </si>
 </sst>
 </file>
@@ -290,8 +335,8 @@
   </sheetPr>
   <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -362,11 +407,76 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2022032001</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2022032002</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2022032003</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2022032004</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2022032005</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heorhi.puhachou\IdeaProjects\dictionary-converter\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E3860-B8CD-408C-8368-5F246B07AA9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DEBA64-82D1-40A8-A7E2-C2CAD2D22CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1128" windowWidth="19716" windowHeight="11232" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Слоўнік" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>BFD</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>працэс прадстаўленьня карыстальніку пэўных правоў у сістэме. Для некаторых сістэм неабходна прайсьці аўтэнтыфікацыю для атрыманьня правоў. Некаторыя сістэмы дазваляюць любым карыстальнікам выконваць пэўныя дзеяньні (то бок без аўтэнтыфікацыі).</t>
+  </si>
+  <si>
+    <t>Multi-Factor Authentication (MFA)</t>
+  </si>
+  <si>
+    <t>Шматфактарная аўтэнтыфікацыя</t>
+  </si>
+  <si>
+    <t>працэс праверкі таго, што карыстальнік зьяўляецца тым, за каго сябе выдае праз больш чым адзін фактар. Напрыклад праз дасыланьне коду ў СМС і увод паролю для зададзенага лагіна.</t>
   </si>
 </sst>
 </file>
@@ -653,13 +662,13 @@
   <dimension ref="A1:AMJ733"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="62.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="44" style="2" customWidth="1"/>
@@ -878,7 +887,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2022032301</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t xml:space="preserve">BFD</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t xml:space="preserve">звычайна выкарыстоўваецца для выкананьня нейкай аперацыі, патрэбнай у дадзены момант. Найбольш распаўсюджана ў кантэксце правядзеньня плацяжоў, таму для такіх выпадкаў можа мець месца больш разгорнуты пераклад - аднаразовая спасылка для аплаты.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vCard, VCF, Virtual Contact File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vCard, VCF, віртуальны файл кантакту, электронная візітоўка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стандарт для фармату файла электроннай візітоўкі. vCard можа быць прымацавана да ліста, дасланага з электроннац пошты, MMS ці QR-кода. Можа зьмяшчаць у сабе імя, адкрас, нумар тэлефону, электронную пошту й г.д.</t>
   </si>
 </sst>
 </file>
@@ -420,15 +429,15 @@
   <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="28.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="45.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="62.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="62.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="29.44"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="2" width="14.43"/>
@@ -673,7 +682,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="74.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2022032902</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t xml:space="preserve">BFD</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t xml:space="preserve">стандарт для фармату файла электроннай візітоўкі. vCard можа быць прымацавана да ліста, дасланага з электроннац пошты, MMS ці QR-кода. Можа зьмяшчаць у сабе імя, адкрас, нумар тэлефону, электронную пошту й г.д.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revoke session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">скончыць сесію</t>
+  </si>
+  <si>
+    <t xml:space="preserve">працэс у выніку якога для адмяняецца аўтарызацыя карыстальніка. Можа адбывацца як для прылады, з якой непасрэдна ўзаемадзейнічае карыстальнік, так і для аддаленых прылад. Для перакладаў сустракаюцца варыянты «закончыць сесію» або «закрыць сесію». Варыянт «адклікаць сесію» зьяўляецца сумнеўным.</t>
   </si>
 </sst>
 </file>
@@ -428,8 +437,8 @@
   </sheetPr>
   <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,7 +705,20 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="74.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2022040701</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -187,7 +187,8 @@
     <t xml:space="preserve">скончыць сесію</t>
   </si>
   <si>
-    <t xml:space="preserve">працэс у выніку якога для адмяняецца аўтарызацыя карыстальніка. Можа адбывацца як для прылады, з якой непасрэдна ўзаемадзейнічае карыстальнік, так і для аддаленых прылад. Для перакладаў сустракаюцца варыянты «закончыць сесію» або «закрыць сесію». Варыянт «адклікаць сесію» зьяўляецца сумнеўным.</t>
+    <t xml:space="preserve">правесьці адмену аўтарызацыі карыстальніка. Можна зрабіць для прылады, зь якой непасрэдна ўзаемадзейнічае карыстальнік, або для аддаленых прылад.
+Для перакладаў сустракаюцца варыянты «закончыць сесію» або «закрыць сесію». Варыянт «адклікаць сесію» зьяўляецца сумнеўным.</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t xml:space="preserve">BFD</t>
   </si>
@@ -189,6 +189,15 @@
   <si>
     <t xml:space="preserve">правесьці адмену аўтарызацыі карыстальніка. Можна зрабіць для прылады, зь якой непасрэдна ўзаемадзейнічае карыстальнік, або для аддаленых прылад.
 Для перакладаў сустракаюцца варыянты «закончыць сесію» або «закрыць сесію». Варыянт «адклікаць сесію» зьяўляецца сумнеўным.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referral link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">запрашальная спасылка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спецыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай праграме/сістэме, а пасьля, як правіла, атрымаць бонусы за рэгістрацыю па сваёй спасылцы.</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
   <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -720,7 +729,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="74.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>2022040702</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -194,7 +194,7 @@
     <t xml:space="preserve">referral link</t>
   </si>
   <si>
-    <t xml:space="preserve">запрашальная спасылка</t>
+    <t xml:space="preserve">запрашальная спасылка, рэферальная спасылка</t>
   </si>
   <si>
     <t xml:space="preserve">спецыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай праграме/сістэме, а пасьля, як правіла, атрымаць бонусы за рэгістрацыю па сваёй спасылцы.</t>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t xml:space="preserve">BFD</t>
   </si>
@@ -194,10 +194,19 @@
     <t xml:space="preserve">referral link</t>
   </si>
   <si>
-    <t xml:space="preserve">запрашальная спасылка, рэферальная спасылка</t>
+    <t xml:space="preserve">запрашальная спасылка</t>
   </si>
   <si>
     <t xml:space="preserve">спецыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай праграме/сістэме, а пасьля, як правіла, атрымаць бонусы за рэгістрацыю па сваёй спасылцы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referral program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">праграма запрашэньняў</t>
+  </si>
+  <si>
+    <t xml:space="preserve">актыўнасьць пры якой адзін чалавек спрабуе спрыяць далучэньню іншых людзей да якой-небудзь праграмы ці кампаніі. Звычайна за кожнага далучанага чалавека прадстаўляюцца грошы або іншыя бонусы.</t>
   </si>
 </sst>
 </file>
@@ -448,7 +457,7 @@
   <dimension ref="A1:E733"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -743,7 +752,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>2022040901</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t xml:space="preserve">BFD</t>
   </si>
@@ -160,7 +160,11 @@
     <t xml:space="preserve">Шматфактарная аўтэнтыфікацыя</t>
   </si>
   <si>
-    <t xml:space="preserve">працэс праверкі таго, што карыстальнік зьяўляецца тым, за каго сябе выдае праз больш чым адзін фактар. Напрыклад праз дасыланьне коду ў СМС і увод паролю для зададзенага лагіна.</t>
+    <t xml:space="preserve">працэс праверкі таго, што карыстальнік зьяўляецца тым, за каго сябе выдае праз больш чым адзін фактар. 
+Асноўныя групы фактараў:
+1) Нешта, што чалавек ведае (пароль, асабістая даныя й г.д.)
+2) Нешта, што чалавек мае (іншы акаўнт, прылада й г.д.)
+3) Нешта, што зьяўляецца часткай чалавека (адбітак пальца, скан сетчаткі глаза й г.д.)</t>
   </si>
   <si>
     <t xml:space="preserve">nonce</t>
@@ -178,7 +182,7 @@
     <t xml:space="preserve">vCard, VCF, віртуальны файл кантакту, электронная візітоўка</t>
   </si>
   <si>
-    <t xml:space="preserve">стандарт для фармату файла электроннай візітоўкі. vCard можа быць прымацавана да ліста, дасланага з электроннац пошты, MMS ці QR-кода. Можа зьмяшчаць у сабе імя, адкрас, нумар тэлефону, электронную пошту й г.д.</t>
+    <t xml:space="preserve">стандарт для фармату файла электроннай візітоўкі. vCard можа быць прымацавана да ліста, дасланага з электроннай пошты, MMS ці QR-кода. Можа зьмяшчаць у сабе імя, адрас, нумар тэлефону й г.д.</t>
   </si>
   <si>
     <t xml:space="preserve">revoke session</t>
@@ -194,19 +198,28 @@
     <t xml:space="preserve">referral link</t>
   </si>
   <si>
+    <t xml:space="preserve">партнёрская спасылка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спецыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай праграме/сістэме, а пасьля, як правіла, атрымаць бонусы за рэгістрацыю па сваёй спасылцы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referral program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">партнёрская праграма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">актыўнасьць пры якой адзін чалавек спрабуе спрыяць далучэньню іншых людзей да якой-небудзь праграмы ці кампаніі. Звычайна за кожнага далучанага чалавека прадстаўляюцца грошы або іншыя бонусы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invite link</t>
+  </si>
+  <si>
     <t xml:space="preserve">запрашальная спасылка</t>
   </si>
   <si>
-    <t xml:space="preserve">спецыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай праграме/сістэме, а пасьля, як правіла, атрымаць бонусы за рэгістрацыю па сваёй спасылцы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">referral program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">праграма запрашэньняў</t>
-  </si>
-  <si>
-    <t xml:space="preserve">актыўнасьць пры якой адзін чалавек спрабуе спрыяць далучэньню іншых людзей да якой-небудзь праграмы ці кампаніі. Звычайна за кожнага далучанага чалавека прадстаўляюцца грошы або іншыя бонусы.</t>
+    <t xml:space="preserve">спецыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай, як правіла недаступнай для шырокага кола, праграме/сістэме. У адрозьненьне ад партнёрскай спасылкі бонусы за запрошаных людзей не налічваюцца. Можа мець месца адказнасьць за непрымальныя паводзіны запрошаных карыстальнікаў.</t>
   </si>
 </sst>
 </file>
@@ -456,8 +469,8 @@
   </sheetPr>
   <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -766,7 +779,20 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>2022042301</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t xml:space="preserve">BFD</t>
   </si>
@@ -160,11 +160,11 @@
     <t xml:space="preserve">Шматфактарная аўтэнтыфікацыя</t>
   </si>
   <si>
-    <t xml:space="preserve">працэс праверкі таго, што карыстальнік зьяўляецца тым, за каго сябе выдае праз больш чым адзін фактар. 
+    <t xml:space="preserve">працэс праверкі таго, што карыстальнік зьяўляецца тым, за каго сябе выдае праз больш чым адзін фактар.
 Асноўныя групы фактараў:
 1) Нешта, што чалавек ведае (пароль, асабістая даныя й г.д.)
 2) Нешта, што чалавек мае (іншы акаўнт, прылада й г.д.)
-3) Нешта, што зьяўляецца часткай чалавека (адбітак пальца, скан сетчаткі глаза й г.д.)</t>
+3) Нешта, што зьяўляецца часткай чалавека (адбітак пальца, скан сятчаткі вока й г.д.)</t>
   </si>
   <si>
     <t xml:space="preserve">nonce</t>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">партнёрская спасылка</t>
   </si>
   <si>
-    <t xml:space="preserve">спецыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай праграме/сістэме, а пасьля, як правіла, атрымаць бонусы за рэгістрацыю па сваёй спасылцы.</t>
+    <t xml:space="preserve">спэцыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай праграме/сыстэме, а пасьля, як правіла, атрымаць бонусы за рэгістрацыю па сваёй спасылцы.</t>
   </si>
   <si>
     <t xml:space="preserve">referral program</t>
@@ -220,6 +220,16 @@
   </si>
   <si>
     <t xml:space="preserve">спецыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай, як правіла недаступнай для шырокага кола, праграме/сістэме. У адрозьненьне ад партнёрскай спасылкі бонусы за запрошаных людзей не налічваюцца. Можа мець месца адказнасьць за непрымальныя паводзіны запрошаных карыстальнікаў.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">трансакцыя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">набор дзеяньняў, якія або выконваюцца ўсе разам, або не выконваецца ні адно зь іх.
+Прыклад: перавод грошай з аднаго рахунка ў адной валюце на другі ў другой. Пасьпяховае выкананьне складаецца з сьпісаньня грошай зь першага рахунка, канвэртацыі й залічэньня на другі рахунак. Сцэнар пры якім грошы сьпішуцца з першага рахунка, а пасьля з-за памылкі яны ня будуць сканвэртаваны й залічаны на другі зьяўляецца недапушчальным. У выпадку памылкі падчас трансакцыі стан аб'ектаў трансакцыі не зьмяняецца.</t>
   </si>
 </sst>
 </file>
@@ -469,8 +479,8 @@
   </sheetPr>
   <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -793,7 +803,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="121.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>2022050701</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/Слоўнік Пугачова.xlsx
+++ b/src/main/resources/Слоўнік Пугачова.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Бібліятэка дэскрыптараў бінарных файлаў, ДБФ (The Binary File Descriptor library)</t>
   </si>
   <si>
-    <t xml:space="preserve">асноўны механізм праекта GNU для працы з аб'ектнымі файламі розных фарматаў.</t>
+    <t xml:space="preserve">асноўны мэханізм праекта GNU для працы з аб'ектнымі файламі розных фарматаў.</t>
   </si>
   <si>
     <t xml:space="preserve">relocation</t>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">прысваеньне адрасу</t>
   </si>
   <si>
-    <t xml:space="preserve">працэс прысваеньня адрасоў загрузкі для кода й дадзеных праграмы, якія залежаць ад пазіцыі, і карэкціроўкі кода й даных для адлюстраваньня прысвоеных адрасоў. </t>
+    <t xml:space="preserve">працэс прысваеньня адрасоў загрузкі для кода й дадзеных праграмы, якія залежаць ад пазыцыі, і карэкціроўкі кода й даных для адлюстраваньня прысвоеных адрасоў.</t>
   </si>
   <si>
     <t xml:space="preserve">Layout features</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Інструмэнты разьметкі</t>
   </si>
   <si>
-    <t xml:space="preserve">уключаюць у сябе тлусты тэкст, падкрэсліваньне, розныя шрыфты й вялікія/загалоўныя літары. Тыповыя інструмэнты разьметкі залежаць ад тыпу тэксту. Вялікія тэксты звычайна разбіваюцца на раздзелы, каб спрасьціць успрыманьне інфармацыі. </t>
+    <t xml:space="preserve">уключаюць у сябе тлусты тэкст, падкрэсьліваньне, розныя шрыфты й вялікія/загалоўныя літары. Тыповыя інструмэнты разьметкі залежаць ад тыпу тэксту. Вялікія тэксты звычайна разьбіваюцца на разьдзелы, каб спрасьціць успрыманьне інфармацыі.</t>
   </si>
   <si>
     <t xml:space="preserve">Variation Axes</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Восі варыяцый</t>
   </si>
   <si>
-    <t xml:space="preserve">дыяпазон лікаў для значэньня, якое апісвае вызначаны аспект дызайну канкрэтнага элемента.</t>
+    <t xml:space="preserve">дыяпазон лікаў для значэньня, якое апісвае вызначаны аспэкт дызайну канкрэтнага элемэнта.</t>
   </si>
   <si>
     <t xml:space="preserve">CJK Symbols and Punctuation</t>
@@ -70,10 +70,10 @@
     <t xml:space="preserve">mkmk, Mark to Mark Positioning</t>
   </si>
   <si>
-    <t xml:space="preserve">Пазіцыяванне акцэнтаў адносна акцэнтаў</t>
-  </si>
-  <si>
-    <t xml:space="preserve">асаблівасьць OpenType, якая дазваляе пазіцыянаваць акцэнты адносна іншых акцэнтаў</t>
+    <t xml:space="preserve">Пазыцыяванне акцэнтаў адносна акцэнтаў</t>
+  </si>
+  <si>
+    <t xml:space="preserve">асаблівасьць OpenType, якая дазваляе пазыцыянаваць акцэнты адносна іншых акцэнтаў</t>
   </si>
   <si>
     <t xml:space="preserve">Reverse engineering</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Аб'ектна-арыентаванае праграміраваньне</t>
   </si>
   <si>
-    <t xml:space="preserve">падыход да напісаньня коду, пры якім сістэма апісваецца праз аб'екты і іх узаемадзеяньне. Метады й палі з інфармацыяй у гэтым выпадку ня могуць існаваць па-за аб'ектам.</t>
+    <t xml:space="preserve">падыход да напісаньня коду, пры якім сыстэма апісваецца праз аб'екты і іх узаемадзеяньне. Мэтады й палі з інфармацыяй у гэтым выпадку ня могуць існаваць па-за абʼектам.</t>
   </si>
   <si>
     <t xml:space="preserve">Software design pattern</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Аўтэнтыфкацыя з дапамогай ключоў SSH</t>
   </si>
   <si>
-    <t xml:space="preserve">больш бяспечная альтэрнатыва клясычнай аўтэнтыфікацыі праз імя й пароль з выкарыстаньнем ключоў SSH. На сэрверы разьмяшчаецца адкрыты ключ, з дапамогай якога зашыфроўваецца паведамленьне й дасылаецца кліенту. Кліент з дапамогай закрытага ключа можа расшыфраваць паведамленьне й даслаць сэрверу адказ. У гэтай схеме галоўнае каб ніхто не завалодаў закрытым ключом кліента, інакш ён зможа прайсьці аўтэнтыфікацыю замест яго.</t>
+    <t xml:space="preserve">больш бясьпечная альтэрнатыва клясычнай аўтэнтыфікацыі праз імя й пароль з выкарыстаньнем ключоў SSH. На сэрвэры разьмяшчаецца адкрыты ключ, з дапамогай якога зашыфроўваецца паведамленьне й дасылаецца кліенту. Кліент з дапамогай закрытага ключа можа расшыфраваць паведамленьне й даслаць сэрвэру адказ. У гэтай схеме галоўнае каб ніхто не завалодаў закрытым ключом кліента, інакш ён зможа прайсьці аўтэнтыфікацыю замест яго.</t>
   </si>
   <si>
     <t xml:space="preserve">Identification</t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Аўтарызацыя</t>
   </si>
   <si>
-    <t xml:space="preserve">працэс прадстаўленьня карыстальніку пэўных правоў у сістэме. Для некаторых сістэм неабходна прайсьці аўтэнтыфікацыю для атрыманьня правоў. Некаторыя сістэмы дазваляюць любым карыстальнікам выконваць пэўныя дзеяньні (то бок без аўтэнтыфікацыі).</t>
+    <t xml:space="preserve">працэс прадстаўленьня карыстальніку пэўных правоў у сыстэме. Для некаторых сыстэм неабходна прайсьці аўтэнтыфікацыю для атрыманьня правоў. Некаторыя сыстэмы дазваляюць любым карыстальнікам выконваць пэўныя дзеяньні (то бок без аўтэнтыфікацыі).</t>
   </si>
   <si>
     <t xml:space="preserve">Multi-Factor Authentication (MFA)</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">vCard, VCF, віртуальны файл кантакту, электронная візітоўка</t>
   </si>
   <si>
-    <t xml:space="preserve">стандарт для фармату файла электроннай візітоўкі. vCard можа быць прымацавана да ліста, дасланага з электроннай пошты, MMS ці QR-кода. Можа зьмяшчаць у сабе імя, адрас, нумар тэлефону й г.д.</t>
+    <t xml:space="preserve">стандарт для фармату файла электроннай візытоўкі. vCard можа быць прымацавана да ліста, дасланага з электроннай пошты, MMS ці QR-кода. Можа зьмяшчаць у сабе імя, адрас, нумар тэлефону й г.д.</t>
   </si>
   <si>
     <t xml:space="preserve">revoke session</t>
@@ -191,8 +191,7 @@
     <t xml:space="preserve">скончыць сесію</t>
   </si>
   <si>
-    <t xml:space="preserve">правесьці адмену аўтарызацыі карыстальніка. Можна зрабіць для прылады, зь якой непасрэдна ўзаемадзейнічае карыстальнік, або для аддаленых прылад.
-Для перакладаў сустракаюцца варыянты «закончыць сесію» або «закрыць сесію». Варыянт «адклікаць сесію» зьяўляецца сумнеўным.</t>
+    <t xml:space="preserve">правесьці адмену аўтарызацыі карыстальніка. Можна зрабіць для прылады, зь якой непасрэдна ўзаемадзейнічае карыстальнік, або для аддаленых прылад.</t>
   </si>
   <si>
     <t xml:space="preserve">referral link</t>
@@ -219,7 +218,7 @@
     <t xml:space="preserve">запрашальная спасылка</t>
   </si>
   <si>
-    <t xml:space="preserve">спецыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай, як правіла недаступнай для шырокага кола, праграме/сістэме. У адрозьненьне ад партнёрскай спасылкі бонусы за запрошаных людзей не налічваюцца. Можа мець месца адказнасьць за непрымальныя паводзіны запрошаных карыстальнікаў.</t>
+    <t xml:space="preserve">спэцыяльны від спасылкі, якую адзін карыстальнік можа даслаць іншаму чалавеку для рэгістрацыі ў пэўнай, як правіла недаступнай для шырокага кола, праграме/сыстэме. У адрозьненьне ад партнэрскай спасылкі бонусы за запрошаных людзей не налічваюцца. Можа мець месца адказнасьць за непрымальныя паводзіны запрошаных карыстальнікаў.</t>
   </si>
   <si>
     <t xml:space="preserve">transaction</t>
@@ -479,8 +478,8 @@
   </sheetPr>
   <dimension ref="A1:E733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
